--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="hLT7PAOU1DCtdtbUuUJuG6LToy2yYtnnhkdW14o9aEA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="qdLaBr35wIB7CAP+QxNwwyvCZwxv0ISVMOZUFkY++9Y="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -45,7 +45,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">　　　　　　　　　　通常点検チェックシート</t>
+    <t xml:space="preserve">　　　　　　　　　　日常点検チェックシート</t>
   </si>
   <si>
     <t>様式2-1</t>
@@ -183,7 +183,7 @@
 □チHーンの父換(   箇所)
 □座板の交換(    箇所)
 □石•異物の除去、枝の剪定
-口その他(              )</t>
+□その他(              )</t>
     </r>
   </si>
   <si>
@@ -443,667 +443,6 @@
   <si>
     <t>大きな凹凸、石や根の露出、異物、
 マットのめくれ・破損、樹木の枝</t>
-  </si>
-  <si>
-    <t>第
-2
-回</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>柱・梁(本体)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>●点検時に実施した措置
-□グリース•オイル等の注入※1</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>□ボルト・ナットの増し締め・交換
-□吊金具の交換(   箇所)
-□チHーンの父換(   箇所)
-□座板の交換(    箇所)
-□石•異物の除去、枝の剪定
-口その他(              )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>接合部(継ぎ手)</t>
-    </r>
-  </si>
-  <si>
-    <t>破損、変形、腐食
-ボルトの緩み・破損・腐食・欠落</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>吊金具</t>
-    </r>
-  </si>
-  <si>
-    <t>破損、変形、腐食、異音、金具本体のずれ
-摩耗(×:1/3以上、1/2以上は使用禁止)
-ボルトの緩み・破損・腐食・欠落</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>揺動部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>ねじれ、変形、破損、ほつれ、断線
-摩耗</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>(× :</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>1/3以上、1/2以上は使用禁止)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">点検日
- </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>／</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>ヒビ、割れ、湾曲等変形、破損、腐朽、金具の
-摩耗</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">(× </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>：1/3以上、</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>1/2</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>以上は使用禁止)、ボル
-ト・袋ナットの緩み・破損・腐食・欠落</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>安全柵</t>
-    </r>
-  </si>
-  <si>
-    <t>ぐらつき、破損、変形、腐食
-［接合部・ボルト〕緩み、破損、腐食、欠落</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>その他</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>異物、落書き</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">●総合結果※2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">　A:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">健全(△・×なし)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">　B:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">経過観察(△あり、×なし)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">　C:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">要修繕・要対応(×あり)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">　D:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>使用禁止措置 
-　　　（</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">                                                          ）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>基礎</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>基礎が露出、亀裂、破損</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>地表部 安全柵内</t>
-    </r>
-  </si>
-  <si>
-    <t>第
-3
-回</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>柱・梁(本体)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>●点検時に実施した措置
-□グリース•オイル等の注入※1</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>□ボルト・ナットの増し締め・交換
-□吊金具の交換(   箇所)
-□チHーンの父換(   箇所)
-□座板の交換(    箇所)
-□石•異物の除去、枝の剪定
-口その他(              )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>接合部(継ぎ手)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>吊金具</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>揺動部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>ねじれ、変形、破損、ほつれ、断線
-摩耗</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>(× :</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>1/3以上、1/2以上は使用禁止)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">点検日
- </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>／</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>ヒビ、割れ、湾曲等変形、破損、腐朽、金具の
-摩耗</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">(× </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>：1/3以上、</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>1/2</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>以上は使用禁止)、ボル
-ト・袋ナットの緩み・破損・腐食・欠落</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>安全柵</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>その他</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>異物、落書き</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">●総合結果※2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">　A:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">健全(△・×なし)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">　B:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">経過観察(△あり、×なし)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">　C:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">要修繕・要対応(×あり)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">　D:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>使用禁止措置 
-　　　（</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t xml:space="preserve">                                                          ）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>基礎</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>基礎が露出、亀裂、破損</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Noto Sans JP"/>
-        <color theme="1"/>
-        <sz val="7.0"/>
-      </rPr>
-      <t>地表部 安全柵内</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1214,7 +553,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="46">
     <border/>
     <border>
       <left style="medium">
@@ -1623,58 +962,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1683,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
@@ -1691,7 +978,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -1778,7 +1065,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1796,13 +1083,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
@@ -1814,13 +1101,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
@@ -1856,16 +1143,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="38" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="41" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="42" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="43" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
@@ -1878,33 +1165,6 @@
     </xf>
     <xf borderId="45" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="46" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="48" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="50" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -2328,8 +1588,8 @@
       <c r="D13" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="45" t="s">
+      <c r="E13" s="57"/>
+      <c r="F13" s="58" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="28"/>
@@ -2344,7 +1604,7 @@
       <c r="D14" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="58"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="40"/>
       <c r="G14" s="41"/>
       <c r="H14" s="42"/>
@@ -2363,324 +1623,36 @@
       <c r="G15" s="64"/>
       <c r="H15" s="29"/>
     </row>
-    <row r="16">
-      <c r="A16" s="30" t="s">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="65" t="s">
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="17">
-      <c r="A17" s="36"/>
-      <c r="B17" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="36"/>
-      <c r="B18" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="36"/>
-      <c r="B19" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="56" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="42"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="59"/>
-      <c r="B25" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="42"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="52"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="56" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="42"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
-    </row>
-    <row r="35" ht="21.0" customHeight="1">
-      <c r="A35" s="59"/>
-      <c r="B35" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="29"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="74" t="s">
-        <v>79</v>
-      </c>
-    </row>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1"/>
@@ -3621,66 +2593,15 @@
     <row r="975" ht="15.75" customHeight="1"/>
     <row r="976" ht="15.75" customHeight="1"/>
     <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C20"/>
+  <mergeCells count="34">
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A2:B2"/>
@@ -3691,10 +2612,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H10"/>
     <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="H32:H35"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
@@ -3709,20 +2626,9 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="F33:G35"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="F6:G9"/>
     <mergeCell ref="F10:G12"/>
     <mergeCell ref="F13:G15"/>
-    <mergeCell ref="F16:G19"/>
-    <mergeCell ref="F20:G22"/>
-    <mergeCell ref="F23:G25"/>
-    <mergeCell ref="F26:G29"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/backend/template.xlsx
+++ b/backend/template.xlsx
@@ -970,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
@@ -1141,9 +1141,6 @@
     </xf>
     <xf borderId="40" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1585,11 +1582,11 @@
         <v>36</v>
       </c>
       <c r="C13" s="38"/>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="57" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="28"/>
@@ -1601,35 +1598,35 @@
         <v>39</v>
       </c>
       <c r="C14" s="38"/>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="40"/>
       <c r="G14" s="41"/>
       <c r="H14" s="42"/>
     </row>
     <row r="15" ht="23.25" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="29"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="64" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="64" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2594,14 +2591,7 @@
     <row r="976" ht="15.75" customHeight="1"/>
     <row r="977" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+  <mergeCells count="36">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A2:B2"/>
@@ -2616,6 +2606,21 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F6:G9"/>
+    <mergeCell ref="F10:G12"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:G5"/>
@@ -2623,12 +2628,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D9:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F6:G9"/>
-    <mergeCell ref="F10:G12"/>
-    <mergeCell ref="F13:G15"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
